--- a/Polanco Domínguez Rosa María 20212.xlsx
+++ b/Polanco Domínguez Rosa María 20212.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="725">
   <si>
     <t>NC</t>
   </si>
@@ -1198,481 +1198,472 @@
     <t>ELIAS ALONSO</t>
   </si>
   <si>
+    <t>KARLA RENATA</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL ONAM</t>
+  </si>
+  <si>
+    <t>EUDY</t>
+  </si>
+  <si>
+    <t>MIRANDA</t>
+  </si>
+  <si>
+    <t>DANIEL ELEAZAR</t>
+  </si>
+  <si>
+    <t>KAREN YAZMIN</t>
+  </si>
+  <si>
+    <t>IRVING JAIR</t>
+  </si>
+  <si>
+    <t>MARCO JOSAFAT</t>
+  </si>
+  <si>
+    <t>AXEL YAEL</t>
+  </si>
+  <si>
+    <t>MARISOL</t>
+  </si>
+  <si>
+    <t>ERNESTO</t>
+  </si>
+  <si>
+    <t>ivettecontreras905@gmail.com</t>
+  </si>
+  <si>
+    <t>karenbenbaez05@gmail.com</t>
+  </si>
+  <si>
+    <t>jacastro.rmz@gmail.com</t>
+  </si>
+  <si>
+    <t>sisusuriel812@gmail.com</t>
+  </si>
+  <si>
+    <t>leoelcrackdelfut@gmail.com</t>
+  </si>
+  <si>
+    <t>glezvaleswag@gmail.com</t>
+  </si>
+  <si>
+    <t>gonzalezhumberto020@gmail.com</t>
+  </si>
+  <si>
+    <t>Villa.marti.1011@gmail.com</t>
+  </si>
+  <si>
+    <t>eliashernandezdiaz05@gmail.com</t>
+  </si>
+  <si>
+    <t>karlarenatalc@gmail.com</t>
+  </si>
+  <si>
+    <t>onamlopezsantiago@gmail.com</t>
+  </si>
+  <si>
+    <t>eudydeluna95@gmail.com</t>
+  </si>
+  <si>
+    <t>Mirandalunaflores8@gmail.com</t>
+  </si>
+  <si>
+    <t>danyyiyo23@gmail.com</t>
+  </si>
+  <si>
+    <t>yazminjimenezz506@gmail.com</t>
+  </si>
+  <si>
+    <t>ortiving@gmail.com</t>
+  </si>
+  <si>
+    <t>ramosjosafat29@gmail.com</t>
+  </si>
+  <si>
+    <t>axelyaelsantiagor20.cb192@dgeti.sems.gob.mx</t>
+  </si>
+  <si>
+    <t>marisoltellez431@gmail.com</t>
+  </si>
+  <si>
+    <t>ernestotinoco22@gmail.com</t>
+  </si>
+  <si>
+    <t>2722421732</t>
+  </si>
+  <si>
+    <t>2722971816</t>
+  </si>
+  <si>
+    <t>2722245528</t>
+  </si>
+  <si>
+    <t>2721871229</t>
+  </si>
+  <si>
+    <t>2721412468</t>
+  </si>
+  <si>
+    <t>2721876074</t>
+  </si>
+  <si>
+    <t>2722343127</t>
+  </si>
+  <si>
+    <t>5578467456</t>
+  </si>
+  <si>
+    <t>5530259182</t>
+  </si>
+  <si>
+    <t>2722371602</t>
+  </si>
+  <si>
+    <t>2721019961</t>
+  </si>
+  <si>
+    <t>2722823690</t>
+  </si>
+  <si>
+    <t>2722031314</t>
+  </si>
+  <si>
+    <t>2721342134</t>
+  </si>
+  <si>
+    <t>2722084316</t>
+  </si>
+  <si>
+    <t>2721587712</t>
+  </si>
+  <si>
+    <t>2722356302</t>
+  </si>
+  <si>
+    <t>2722867021</t>
+  </si>
+  <si>
+    <t>2722032602</t>
+  </si>
+  <si>
+    <t>2721078392</t>
+  </si>
+  <si>
+    <t>2722971817</t>
+  </si>
+  <si>
+    <t>2726892718</t>
+  </si>
+  <si>
+    <t>5.22722e+16</t>
+  </si>
+  <si>
+    <t>2727211100</t>
+  </si>
+  <si>
+    <t>5581529803</t>
+  </si>
+  <si>
+    <t>2722018470</t>
+  </si>
+  <si>
+    <t>2721061544</t>
+  </si>
+  <si>
+    <t>2721108745</t>
+  </si>
+  <si>
+    <t>2722111714</t>
+  </si>
+  <si>
+    <t>JUAN MANUEL BENÍTEZ HERNÁNDEZ</t>
+  </si>
+  <si>
+    <t>JOSÉ DOMINGO CASTRO JUÁREZ</t>
+  </si>
+  <si>
+    <t>LUIS ANTONIO CASTILLO GUZMÁN</t>
+  </si>
+  <si>
+    <t>KARINA GARNICA PINEDA</t>
+  </si>
+  <si>
+    <t>NATALIA ANDRADE RAMÍREZ</t>
+  </si>
+  <si>
+    <t>HUMBERTO GONZÁLEZ PELLICO</t>
+  </si>
+  <si>
+    <t>LUIS GUTIERREZ CORIA</t>
+  </si>
+  <si>
+    <t>FRANCISCO JAVIER HERNANDEZ GONZÁLEZ</t>
+  </si>
+  <si>
+    <t>DAVID ARTURO TEOBAL MONTIEL</t>
+  </si>
+  <si>
+    <t>NORMA AIDA LOPEZ SANTIAGO</t>
+  </si>
+  <si>
+    <t>ILIANA CÓRDOVA RICARTE</t>
+  </si>
+  <si>
+    <t>FELIPE LUNA MOLINA</t>
+  </si>
+  <si>
+    <t>DANIEL MARTINEZ SANCHEZ</t>
+  </si>
+  <si>
+    <t>LUIS OJEDA ZARATE</t>
+  </si>
+  <si>
+    <t>CÉSAR ORTIZ RAMÍREZ</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO RAMOS SÁNCHEZ</t>
+  </si>
+  <si>
+    <t>HÉCTOR IVÁN SANTIAGO CRUZ</t>
+  </si>
+  <si>
+    <t>MARIA ISABEL OFICIAL SÁNCHEZ</t>
+  </si>
+  <si>
+    <t>FERNANDA RAMOS GONZÁLEZ</t>
+  </si>
+  <si>
+    <t>jdcastro@gmail.com</t>
+  </si>
+  <si>
+    <t>luis.kaztello@gmail.com</t>
+  </si>
+  <si>
+    <t>garnicakarina825@gmail.com</t>
+  </si>
+  <si>
+    <t>nataliaar691@gmail.com</t>
+  </si>
+  <si>
+    <t>hugonzalezpellico@outlook.com</t>
+  </si>
+  <si>
+    <t>luis.coria.gutierrez45@gmail.com</t>
+  </si>
+  <si>
+    <t>deuss13@gmail.com</t>
+  </si>
+  <si>
+    <t>ORIVER82@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t>norma_al_santiago@hotmail.com</t>
+  </si>
+  <si>
+    <t>ilyeudcor@gmail.com</t>
+  </si>
+  <si>
+    <t>felipe1973luna@gmail.com</t>
+  </si>
+  <si>
+    <t>martisandaniel@gmail.com</t>
+  </si>
+  <si>
+    <t>ojedazarateluis@gmail.com</t>
+  </si>
+  <si>
+    <t>Marcoantonio1523@gmail.com</t>
+  </si>
+  <si>
+    <t>banda4203@hotmail.com</t>
+  </si>
+  <si>
+    <t>fernandagonzales2267@gmail.com</t>
+  </si>
+  <si>
+    <t>2212011630</t>
+  </si>
+  <si>
+    <t>2721675618</t>
+  </si>
+  <si>
+    <t>2727208135</t>
+  </si>
+  <si>
+    <t>2722130712</t>
+  </si>
+  <si>
+    <t>2721224523</t>
+  </si>
+  <si>
+    <t>2721178968</t>
+  </si>
+  <si>
+    <t>5537947446</t>
+  </si>
+  <si>
+    <t>2721230786</t>
+  </si>
+  <si>
+    <t>2721026843</t>
+  </si>
+  <si>
+    <t>2721688255</t>
+  </si>
+  <si>
+    <t>9951059452</t>
+  </si>
+  <si>
+    <t>2727847056</t>
+  </si>
+  <si>
+    <t>2722628018</t>
+  </si>
+  <si>
+    <t>2721625004</t>
+  </si>
+  <si>
+    <t>2721844649</t>
+  </si>
+  <si>
+    <t>2721055481</t>
+  </si>
+  <si>
+    <t>2722865828</t>
+  </si>
+  <si>
+    <t>BRETON</t>
+  </si>
+  <si>
+    <t>BRISEÑO</t>
+  </si>
+  <si>
+    <t>CALIHUA</t>
+  </si>
+  <si>
+    <t>DEL CARMEN</t>
+  </si>
+  <si>
+    <t>CRISTOBAL</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>DONJUAN</t>
+  </si>
+  <si>
+    <t>MAZAHUA</t>
+  </si>
+  <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>QUIAHUA</t>
+  </si>
+  <si>
+    <t>RIOS</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>ZARATE</t>
+  </si>
+  <si>
+    <t>VICENTE</t>
+  </si>
+  <si>
+    <t>SUSUNAGA</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>MELCHOR</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>AGUILA</t>
+  </si>
+  <si>
+    <t>CORTES</t>
+  </si>
+  <si>
+    <t>SANTOS</t>
+  </si>
+  <si>
+    <t>AQUINO</t>
+  </si>
+  <si>
+    <t>TZITZIHUA</t>
+  </si>
+  <si>
+    <t>VOTTE</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>VERGEL</t>
+  </si>
+  <si>
+    <t>AURORA</t>
+  </si>
+  <si>
+    <t>EVELYN AISHA</t>
+  </si>
+  <si>
+    <t>AMYRA NAHOMY</t>
+  </si>
+  <si>
+    <t>VANESSA</t>
+  </si>
+  <si>
+    <t>JOEL</t>
+  </si>
+  <si>
+    <t>NAOMI</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>OFELIA</t>
+  </si>
+  <si>
+    <t>ZURI SADAY</t>
+  </si>
+  <si>
+    <t>RAUL ANTONIO</t>
+  </si>
+  <si>
+    <t>HILARIO</t>
+  </si>
+  <si>
+    <t>GISELA</t>
+  </si>
+  <si>
+    <t>MARIA GUADALUPE</t>
+  </si>
+  <si>
     <t>JESUS</t>
-  </si>
-  <si>
-    <t>KARLA RENATA</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL ONAM</t>
-  </si>
-  <si>
-    <t>EUDY</t>
-  </si>
-  <si>
-    <t>MIRANDA</t>
-  </si>
-  <si>
-    <t>DANIEL ELEAZAR</t>
-  </si>
-  <si>
-    <t>KAREN YAZMIN</t>
-  </si>
-  <si>
-    <t>IRVING JAIR</t>
-  </si>
-  <si>
-    <t>MARCO JOSAFAT</t>
-  </si>
-  <si>
-    <t>AXEL YAEL</t>
-  </si>
-  <si>
-    <t>MARISOL</t>
-  </si>
-  <si>
-    <t>ERNESTO</t>
-  </si>
-  <si>
-    <t>ivettecontreras905@gmail.com</t>
-  </si>
-  <si>
-    <t>karenbenbaez05@gmail.com</t>
-  </si>
-  <si>
-    <t>jacastro.rmz@gmail.com</t>
-  </si>
-  <si>
-    <t>sisusuriel812@gmail.com</t>
-  </si>
-  <si>
-    <t>leoelcrackdelfut@gmail.com</t>
-  </si>
-  <si>
-    <t>glezvaleswag@gmail.com</t>
-  </si>
-  <si>
-    <t>gonzalezhumberto020@gmail.com</t>
-  </si>
-  <si>
-    <t>Villa.marti.1011@gmail.com</t>
-  </si>
-  <si>
-    <t>eliashernandezdiaz05@gmail.com</t>
-  </si>
-  <si>
-    <t>jesushernandezsarmiento108@gmail.com</t>
-  </si>
-  <si>
-    <t>karlarenatalc@gmail.com</t>
-  </si>
-  <si>
-    <t>onamlopezsantiago@gmail.com</t>
-  </si>
-  <si>
-    <t>eudydeluna95@gmail.com</t>
-  </si>
-  <si>
-    <t>Mirandalunaflores8@gmail.com</t>
-  </si>
-  <si>
-    <t>danyyiyo23@gmail.com</t>
-  </si>
-  <si>
-    <t>yazminjimenezz506@gmail.com</t>
-  </si>
-  <si>
-    <t>ortiving@gmail.com</t>
-  </si>
-  <si>
-    <t>ramosjosafat29@gmail.com</t>
-  </si>
-  <si>
-    <t>axelyaelsantiagor20.cb192@dgeti.sems.gob.mx</t>
-  </si>
-  <si>
-    <t>marisoltellez431@gmail.com</t>
-  </si>
-  <si>
-    <t>ernestotinoco22@gmail.com</t>
-  </si>
-  <si>
-    <t>2722421732</t>
-  </si>
-  <si>
-    <t>2722971816</t>
-  </si>
-  <si>
-    <t>2722245528</t>
-  </si>
-  <si>
-    <t>2721871229</t>
-  </si>
-  <si>
-    <t>2721412468</t>
-  </si>
-  <si>
-    <t>2721876074</t>
-  </si>
-  <si>
-    <t>2722343127</t>
-  </si>
-  <si>
-    <t>5578467456</t>
-  </si>
-  <si>
-    <t>5530259182</t>
-  </si>
-  <si>
-    <t>2722146369</t>
-  </si>
-  <si>
-    <t>2722371602</t>
-  </si>
-  <si>
-    <t>2721019961</t>
-  </si>
-  <si>
-    <t>2722823690</t>
-  </si>
-  <si>
-    <t>2722031314</t>
-  </si>
-  <si>
-    <t>2721342134</t>
-  </si>
-  <si>
-    <t>2722084316</t>
-  </si>
-  <si>
-    <t>2721587712</t>
-  </si>
-  <si>
-    <t>2722356302</t>
-  </si>
-  <si>
-    <t>2722867021</t>
-  </si>
-  <si>
-    <t>2722032602</t>
-  </si>
-  <si>
-    <t>2721078392</t>
-  </si>
-  <si>
-    <t>2722971817</t>
-  </si>
-  <si>
-    <t>2726892718</t>
-  </si>
-  <si>
-    <t>5.22722e+16</t>
-  </si>
-  <si>
-    <t>2727211100</t>
-  </si>
-  <si>
-    <t>5581529803</t>
-  </si>
-  <si>
-    <t>2722018470</t>
-  </si>
-  <si>
-    <t>2721061544</t>
-  </si>
-  <si>
-    <t>2721108745</t>
-  </si>
-  <si>
-    <t>2722111714</t>
-  </si>
-  <si>
-    <t>JUAN MANUEL BENÍTEZ HERNÁNDEZ</t>
-  </si>
-  <si>
-    <t>JOSÉ DOMINGO CASTRO JUÁREZ</t>
-  </si>
-  <si>
-    <t>LUIS ANTONIO CASTILLO GUZMÁN</t>
-  </si>
-  <si>
-    <t>KARINA GARNICA PINEDA</t>
-  </si>
-  <si>
-    <t>NATALIA ANDRADE RAMÍREZ</t>
-  </si>
-  <si>
-    <t>HUMBERTO GONZÁLEZ PELLICO</t>
-  </si>
-  <si>
-    <t>LUIS GUTIERREZ CORIA</t>
-  </si>
-  <si>
-    <t>FRANCISCO JAVIER HERNANDEZ GONZÁLEZ</t>
-  </si>
-  <si>
-    <t>JORGE HERNÁNDEZ ATLAHUA</t>
-  </si>
-  <si>
-    <t>DAVID ARTURO TEOBAL MONTIEL</t>
-  </si>
-  <si>
-    <t>NORMA AIDA LOPEZ SANTIAGO</t>
-  </si>
-  <si>
-    <t>ILIANA CÓRDOVA RICARTE</t>
-  </si>
-  <si>
-    <t>FELIPE LUNA MOLINA</t>
-  </si>
-  <si>
-    <t>DANIEL MARTINEZ SANCHEZ</t>
-  </si>
-  <si>
-    <t>LUIS OJEDA ZARATE</t>
-  </si>
-  <si>
-    <t>CÉSAR ORTIZ RAMÍREZ</t>
-  </si>
-  <si>
-    <t>MARCO ANTONIO RAMOS SÁNCHEZ</t>
-  </si>
-  <si>
-    <t>HÉCTOR IVÁN SANTIAGO CRUZ</t>
-  </si>
-  <si>
-    <t>MARIA ISABEL OFICIAL SÁNCHEZ</t>
-  </si>
-  <si>
-    <t>FERNANDA RAMOS GONZÁLEZ</t>
-  </si>
-  <si>
-    <t>jdcastro@gmail.com</t>
-  </si>
-  <si>
-    <t>luis.kaztello@gmail.com</t>
-  </si>
-  <si>
-    <t>garnicakarina825@gmail.com</t>
-  </si>
-  <si>
-    <t>nataliaar691@gmail.com</t>
-  </si>
-  <si>
-    <t>hugonzalezpellico@outlook.com</t>
-  </si>
-  <si>
-    <t>luis.coria.gutierrez45@gmail.com</t>
-  </si>
-  <si>
-    <t>deuss13@gmail.com</t>
-  </si>
-  <si>
-    <t>ORIVER82@HOTMAIL.COM</t>
-  </si>
-  <si>
-    <t>norma_al_santiago@hotmail.com</t>
-  </si>
-  <si>
-    <t>ilyeudcor@gmail.com</t>
-  </si>
-  <si>
-    <t>felipe1973luna@gmail.com</t>
-  </si>
-  <si>
-    <t>martisandaniel@gmail.com</t>
-  </si>
-  <si>
-    <t>ojedazarateluis@gmail.com</t>
-  </si>
-  <si>
-    <t>Marcoantonio1523@gmail.com</t>
-  </si>
-  <si>
-    <t>banda4203@hotmail.com</t>
-  </si>
-  <si>
-    <t>fernandagonzales2267@gmail.com</t>
-  </si>
-  <si>
-    <t>2212011630</t>
-  </si>
-  <si>
-    <t>2721675618</t>
-  </si>
-  <si>
-    <t>2727208135</t>
-  </si>
-  <si>
-    <t>2722130712</t>
-  </si>
-  <si>
-    <t>2721224523</t>
-  </si>
-  <si>
-    <t>2721178968</t>
-  </si>
-  <si>
-    <t>5537947446</t>
-  </si>
-  <si>
-    <t>2721230786</t>
-  </si>
-  <si>
-    <t>2721026843</t>
-  </si>
-  <si>
-    <t>2721688255</t>
-  </si>
-  <si>
-    <t>9951059452</t>
-  </si>
-  <si>
-    <t>2727847056</t>
-  </si>
-  <si>
-    <t>2722628018</t>
-  </si>
-  <si>
-    <t>2721625004</t>
-  </si>
-  <si>
-    <t>2721844649</t>
-  </si>
-  <si>
-    <t>2721055481</t>
-  </si>
-  <si>
-    <t>2722865828</t>
-  </si>
-  <si>
-    <t>BRETON</t>
-  </si>
-  <si>
-    <t>BRISEÑO</t>
-  </si>
-  <si>
-    <t>CALIHUA</t>
-  </si>
-  <si>
-    <t>DEL CARMEN</t>
-  </si>
-  <si>
-    <t>CRISTOBAL</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>DONJUAN</t>
-  </si>
-  <si>
-    <t>MAZAHUA</t>
-  </si>
-  <si>
-    <t>MENDEZ</t>
-  </si>
-  <si>
-    <t>QUIAHUA</t>
-  </si>
-  <si>
-    <t>RIOS</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>ZARATE</t>
-  </si>
-  <si>
-    <t>VICENTE</t>
-  </si>
-  <si>
-    <t>SUSUNAGA</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>MELCHOR</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>AGUILA</t>
-  </si>
-  <si>
-    <t>CORTES</t>
-  </si>
-  <si>
-    <t>SANTOS</t>
-  </si>
-  <si>
-    <t>AQUINO</t>
-  </si>
-  <si>
-    <t>TZITZIHUA</t>
-  </si>
-  <si>
-    <t>VOTTE</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>VERGEL</t>
-  </si>
-  <si>
-    <t>AURORA</t>
-  </si>
-  <si>
-    <t>EVELYN AISHA</t>
-  </si>
-  <si>
-    <t>AMYRA NAHOMY</t>
-  </si>
-  <si>
-    <t>VANESSA</t>
-  </si>
-  <si>
-    <t>JOEL</t>
-  </si>
-  <si>
-    <t>NAOMI</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>OFELIA</t>
-  </si>
-  <si>
-    <t>ZURI SADAY</t>
-  </si>
-  <si>
-    <t>RAUL ANTONIO</t>
-  </si>
-  <si>
-    <t>HILARIO</t>
-  </si>
-  <si>
-    <t>GISELA</t>
-  </si>
-  <si>
-    <t>MARIA GUADALUPE</t>
   </si>
   <si>
     <t>JOSE DANIEL</t>
@@ -4268,7 +4259,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4332,10 +4323,10 @@
         <v>384</v>
       </c>
       <c r="E2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G2" t="s">
         <v>146</v>
@@ -4367,19 +4358,19 @@
         <v>385</v>
       </c>
       <c r="E3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="J3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -4399,22 +4390,22 @@
         <v>386</v>
       </c>
       <c r="E4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I4" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="J4" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -4434,22 +4425,22 @@
         <v>387</v>
       </c>
       <c r="E5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I5" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="J5" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -4469,22 +4460,22 @@
         <v>388</v>
       </c>
       <c r="E6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I6" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="J6" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -4504,22 +4495,22 @@
         <v>389</v>
       </c>
       <c r="E7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="I7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="J7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -4539,22 +4530,22 @@
         <v>390</v>
       </c>
       <c r="E8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G8" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H8" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="I8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J8" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -4574,19 +4565,19 @@
         <v>391</v>
       </c>
       <c r="E9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H9" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I9" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="J9" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -4606,22 +4597,22 @@
         <v>392</v>
       </c>
       <c r="E10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G10" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H10" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="I10" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J10" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -4629,34 +4620,31 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>20330051920346</v>
+        <v>20330051920271</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>366</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>379</v>
       </c>
       <c r="D11" t="s">
         <v>393</v>
       </c>
       <c r="E11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F11" t="s">
-        <v>435</v>
-      </c>
-      <c r="G11" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H11" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="I11" t="s">
-        <v>414</v>
+        <v>479</v>
       </c>
       <c r="J11" t="s">
-        <v>435</v>
+        <v>495</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -4664,95 +4652,98 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>20330051920271</v>
+        <v>20330051920272</v>
       </c>
       <c r="B12" t="s">
         <v>366</v>
       </c>
       <c r="C12" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D12" t="s">
         <v>394</v>
       </c>
       <c r="E12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H12" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="I12" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="J12" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>20330051920272</v>
+        <v>19220030050208</v>
       </c>
       <c r="B13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C13" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="D13" t="s">
         <v>395</v>
       </c>
       <c r="E13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F13" t="s">
-        <v>437</v>
+        <v>435</v>
+      </c>
+      <c r="G13" t="s">
+        <v>449</v>
       </c>
       <c r="H13" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="I13" t="s">
-        <v>484</v>
-      </c>
-      <c r="J13" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>19220030050208</v>
+        <v>20330051920273</v>
       </c>
       <c r="B14" t="s">
-        <v>367</v>
+        <v>231</v>
       </c>
       <c r="C14" t="s">
-        <v>380</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
         <v>396</v>
       </c>
       <c r="E14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F14" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H14" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I14" t="s">
-        <v>485</v>
+        <v>482</v>
+      </c>
+      <c r="J14" t="s">
+        <v>497</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -4760,34 +4751,31 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>20330051920273</v>
+        <v>20330051920274</v>
       </c>
       <c r="B15" t="s">
-        <v>231</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
         <v>397</v>
       </c>
       <c r="E15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F15" t="s">
-        <v>439</v>
-      </c>
-      <c r="G15" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="H15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I15" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="J15" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -4795,63 +4783,66 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>20330051920274</v>
+        <v>20330051920276</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>368</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>381</v>
       </c>
       <c r="D16" t="s">
         <v>398</v>
       </c>
       <c r="E16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F16" t="s">
-        <v>440</v>
+        <v>438</v>
+      </c>
+      <c r="G16" t="s">
+        <v>451</v>
       </c>
       <c r="H16" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="I16" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="J16" t="s">
-        <v>502</v>
+        <v>499</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>20330051920276</v>
+        <v>19330051920238</v>
       </c>
       <c r="B17" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C17" t="s">
-        <v>381</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
         <v>399</v>
       </c>
       <c r="E17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F17" t="s">
-        <v>441</v>
-      </c>
-      <c r="G17" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="H17" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="I17" t="s">
-        <v>488</v>
+        <v>419</v>
       </c>
       <c r="J17" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -4859,167 +4850,135 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>19330051920238</v>
+        <v>20330051920278</v>
       </c>
       <c r="B18" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>382</v>
       </c>
       <c r="D18" t="s">
         <v>400</v>
       </c>
       <c r="E18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F18" t="s">
-        <v>442</v>
+        <v>440</v>
+      </c>
+      <c r="G18" t="s">
+        <v>152</v>
       </c>
       <c r="H18" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="I18" t="s">
-        <v>421</v>
+        <v>485</v>
       </c>
       <c r="J18" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>20330051920278</v>
+        <v>20330051920279</v>
       </c>
       <c r="B19" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C19" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D19" t="s">
         <v>401</v>
       </c>
       <c r="E19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F19" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>452</v>
       </c>
       <c r="H19" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="I19" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="J19" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>20330051920279</v>
+        <v>20330051920281</v>
       </c>
       <c r="B20" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C20" t="s">
-        <v>383</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
         <v>402</v>
       </c>
       <c r="E20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G20" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="H20" t="s">
-        <v>473</v>
-      </c>
-      <c r="I20" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="J20" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>20330051920281</v>
+        <v>20330051920282</v>
       </c>
       <c r="B21" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>370</v>
       </c>
       <c r="D21" t="s">
         <v>403</v>
       </c>
       <c r="E21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F21" t="s">
-        <v>445</v>
-      </c>
-      <c r="G21" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H21" t="s">
-        <v>474</v>
+        <v>471</v>
+      </c>
+      <c r="I21" t="s">
+        <v>487</v>
       </c>
       <c r="J21" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22">
-        <v>20330051920282</v>
-      </c>
-      <c r="B22" t="s">
-        <v>373</v>
-      </c>
-      <c r="C22" t="s">
-        <v>370</v>
-      </c>
-      <c r="D22" t="s">
-        <v>404</v>
-      </c>
-      <c r="E22" t="s">
-        <v>425</v>
-      </c>
-      <c r="F22" t="s">
-        <v>446</v>
-      </c>
-      <c r="H22" t="s">
-        <v>475</v>
-      </c>
-      <c r="I22" t="s">
-        <v>491</v>
-      </c>
-      <c r="J22" t="s">
-        <v>508</v>
-      </c>
-      <c r="K22">
         <v>0</v>
       </c>
     </row>
@@ -5088,28 +5047,28 @@
         <v>224</v>
       </c>
       <c r="C2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="G2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="I2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="J2" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -5126,22 +5085,22 @@
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E3" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F3" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H3" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="I3" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="J3" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -5152,25 +5111,25 @@
         <v>19330051920360</v>
       </c>
       <c r="B4" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C4" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D4" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E4" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="I4" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -5181,31 +5140,31 @@
         <v>19330051920456</v>
       </c>
       <c r="B5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C5" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D5" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E5" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F5" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G5" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H5" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="I5" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="J5" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -5216,31 +5175,31 @@
         <v>19330051920362</v>
       </c>
       <c r="B6" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C6" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D6" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E6" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F6" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="G6" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H6" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="I6" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="J6" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -5251,31 +5210,31 @@
         <v>19330051920426</v>
       </c>
       <c r="B7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F7" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G7" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="H7" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="I7" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J7" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -5286,31 +5245,31 @@
         <v>19330051920366</v>
       </c>
       <c r="B8" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C8" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D8" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E8" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F8" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="G8" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H8" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="I8" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="J8" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -5327,25 +5286,25 @@
         <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E9" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F9" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G9" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H9" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="I9" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="J9" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -5356,31 +5315,31 @@
         <v>19330051920368</v>
       </c>
       <c r="B10" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C10" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D10" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E10" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F10" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G10" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H10" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="I10" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="J10" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -5397,25 +5356,25 @@
         <v>366</v>
       </c>
       <c r="D11" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E11" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F11" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G11" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H11" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="I11" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="J11" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -5426,31 +5385,31 @@
         <v>19330051920371</v>
       </c>
       <c r="B12" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C12" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D12" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E12" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F12" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="G12" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="H12" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="I12" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="J12" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -5464,28 +5423,28 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D13" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E13" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F13" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G13" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="H13" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="I13" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="J13" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -5499,28 +5458,28 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D14" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E14" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F14" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="G14" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="H14" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="I14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="J14" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -5537,25 +5496,25 @@
         <v>378</v>
       </c>
       <c r="D15" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E15" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F15" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G15" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H15" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="I15" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="J15" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -5569,28 +5528,28 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D16" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E16" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="F16" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G16" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H16" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="I16" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="J16" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -5604,25 +5563,25 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D17" t="s">
-        <v>393</v>
+        <v>548</v>
       </c>
       <c r="E17" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F17" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H17" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="I17" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="J17" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -5636,25 +5595,25 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D18" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E18" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F18" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H18" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="I18" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="J18" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -5671,25 +5630,25 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E19" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F19" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G19" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="H19" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="I19" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="J19" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -5706,19 +5665,19 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E20" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F20" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H20" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J20" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -5735,25 +5694,25 @@
         <v>228</v>
       </c>
       <c r="D21" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E21" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F21" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G21" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="H21" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="I21" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="J21" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -5764,25 +5723,25 @@
         <v>19330051920382</v>
       </c>
       <c r="B22" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C22" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D22" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E22" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F22" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="H22" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="J22" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -5793,31 +5752,31 @@
         <v>19330051920383</v>
       </c>
       <c r="B23" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C23" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D23" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E23" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F23" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G23" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="H23" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="I23" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="J23" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -5831,25 +5790,25 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D24" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E24" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="F24" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="H24" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="I24" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="J24" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -5860,31 +5819,31 @@
         <v>19330051920389</v>
       </c>
       <c r="B25" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C25" t="s">
         <v>224</v>
       </c>
       <c r="D25" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E25" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F25" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="H25" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="I25" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="J25" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -5898,19 +5857,19 @@
         <v>370</v>
       </c>
       <c r="C26" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D26" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E26" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F26" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="H26" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -5921,31 +5880,31 @@
         <v>19330051920391</v>
       </c>
       <c r="B27" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C27" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D27" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E27" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F27" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G27" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="H27" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="I27" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="J27" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -5956,22 +5915,22 @@
         <v>19330051920393</v>
       </c>
       <c r="B28" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C28" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D28" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E28" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F28" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="H28" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -5988,22 +5947,22 @@
         <v>369</v>
       </c>
       <c r="D29" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E29" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F29" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H29" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="I29" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="J29" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -6014,31 +5973,31 @@
         <v>19330051920434</v>
       </c>
       <c r="B30" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C30" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D30" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E30" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F30" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="G30" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="H30" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="I30" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="J30" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -6052,28 +6011,28 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D31" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E31" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F31" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G31" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="H31" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="I31" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="J31" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -6084,31 +6043,31 @@
         <v>19330051920369</v>
       </c>
       <c r="B32" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C32" t="s">
         <v>382</v>
       </c>
       <c r="D32" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E32" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F32" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G32" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="H32" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="I32" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="J32" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -6119,7 +6078,7 @@
         <v>19330051920398</v>
       </c>
       <c r="B33" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C33" t="s">
         <v>26</v>
@@ -6128,22 +6087,22 @@
         <v>389</v>
       </c>
       <c r="E33" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F33" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G33" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H33" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="I33" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="J33" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -6154,31 +6113,31 @@
         <v>19330051920399</v>
       </c>
       <c r="B34" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C34" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D34" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E34" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F34" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G34" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="H34" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="I34" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="J34" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="K34">
         <v>2</v>

--- a/Polanco Domínguez Rosa María 20212.xlsx
+++ b/Polanco Domínguez Rosa María 20212.xlsx
@@ -2835,7 +2835,7 @@
         <v>149</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3339,7 +3339,7 @@
         <v>217</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11">
